--- a/data/evaluation/evaluation_North_Winter_Oranges.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Oranges.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1602.301587301587</v>
+        <v>1673.412698412699</v>
       </c>
       <c r="C3" t="n">
-        <v>5783948.80952381</v>
+        <v>5890141.402116401</v>
       </c>
       <c r="D3" t="n">
-        <v>2404.984159931996</v>
+        <v>2426.961351590997</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08669155856153143</v>
+        <v>0.06992332730171236</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1549.1317376808</v>
+        <v>1540.604370702438</v>
       </c>
       <c r="C4" t="n">
-        <v>5361605.481435101</v>
+        <v>5224491.100479264</v>
       </c>
       <c r="D4" t="n">
-        <v>2315.514085777735</v>
+        <v>2285.714571086964</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1533812440050634</v>
+        <v>0.1750321482045226</v>
       </c>
     </row>
     <row r="5">
